--- a/sse/综合数据分析（天）/小时半小时成交量.xlsx
+++ b/sse/综合数据分析（天）/小时半小时成交量.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="53">
   <si>
     <t xml:space="preserve"> 2015/05/07-10:00</t>
   </si>
@@ -167,6 +167,22 @@
   </si>
   <si>
     <t xml:space="preserve"> 2015/05/14-13:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015/05/14-14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015/05/14-14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015/05/14-15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015/05/15-10:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -594,7 +610,7 @@
         <v>1291406464</v>
       </c>
       <c r="E3">
-        <f>(D3-B3)/B3</f>
+        <f t="shared" ref="E3:E40" si="0">(D3-B3)/B3</f>
         <v>-4.2278711334892277E-2</v>
       </c>
       <c r="G3" t="s">
@@ -628,7 +644,7 @@
         <v>661069440</v>
       </c>
       <c r="E4">
-        <f>(D4-B4)/B4</f>
+        <f t="shared" si="0"/>
         <v>-0.2301776450637347</v>
       </c>
       <c r="G4" t="s">
@@ -644,7 +660,7 @@
         <v>560378752</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K39" si="0">(J4-H4)/H4</f>
+        <f t="shared" ref="K4:K39" si="1">(J4-H4)/H4</f>
         <v>-0.19428466789236662</v>
       </c>
     </row>
@@ -662,7 +678,7 @@
         <v>513290080</v>
       </c>
       <c r="E5">
-        <f>(D5-B5)/B5</f>
+        <f t="shared" si="0"/>
         <v>-1.5110934767853803E-2</v>
       </c>
       <c r="G5" t="s">
@@ -678,7 +694,7 @@
         <v>409842432</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.6389163188446915E-2</v>
       </c>
     </row>
@@ -696,7 +712,7 @@
         <v>463131584</v>
       </c>
       <c r="E6">
-        <f>(D6-B6)/B6</f>
+        <f t="shared" si="0"/>
         <v>0.45390247398837891</v>
       </c>
       <c r="G6" t="s">
@@ -712,7 +728,7 @@
         <v>372769216</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39730629876132062</v>
       </c>
     </row>
@@ -730,7 +746,7 @@
         <v>685104640</v>
       </c>
       <c r="E7">
-        <f>(D7-B7)/B7</f>
+        <f t="shared" si="0"/>
         <v>0.54306605811370401</v>
       </c>
       <c r="G7" t="s">
@@ -746,7 +762,7 @@
         <v>547096768</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.64419265918908308</v>
       </c>
     </row>
@@ -764,7 +780,7 @@
         <v>585377536</v>
       </c>
       <c r="E8">
-        <f>(D8-B8)/B8</f>
+        <f t="shared" si="0"/>
         <v>-1.3646081419681627E-2</v>
       </c>
       <c r="G8" t="s">
@@ -780,7 +796,7 @@
         <v>508290944</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1227042795395893</v>
       </c>
     </row>
@@ -798,7 +814,7 @@
         <v>463805312</v>
       </c>
       <c r="E9">
-        <f>(D9-B9)/B9</f>
+        <f t="shared" si="0"/>
         <v>9.7667270221206502E-4</v>
       </c>
       <c r="G9" t="s">
@@ -814,7 +830,7 @@
         <v>365357280</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8879597048061145E-3</v>
       </c>
     </row>
@@ -832,7 +848,7 @@
         <v>933300288</v>
       </c>
       <c r="E10">
-        <f>(D10-B10)/B10</f>
+        <f t="shared" si="0"/>
         <v>9.2360243850405824E-2</v>
       </c>
       <c r="G10" t="s">
@@ -848,7 +864,7 @@
         <v>737467072</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8864158082415925E-2</v>
       </c>
     </row>
@@ -866,7 +882,7 @@
         <v>1638463488</v>
       </c>
       <c r="E11">
-        <f>(D11-B11)/B11</f>
+        <f t="shared" si="0"/>
         <v>0.26874344652498194</v>
       </c>
       <c r="G11" t="s">
@@ -882,7 +898,7 @@
         <v>1330293632</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30458778382662566</v>
       </c>
     </row>
@@ -900,7 +916,7 @@
         <v>994529472</v>
       </c>
       <c r="E12">
-        <f>(D12-B12)/B12</f>
+        <f t="shared" si="0"/>
         <v>0.50442512060457678</v>
       </c>
       <c r="G12" t="s">
@@ -916,7 +932,7 @@
         <v>786014272</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4026482431653654</v>
       </c>
     </row>
@@ -934,7 +950,7 @@
         <v>759539456</v>
       </c>
       <c r="E13">
-        <f>(D13-B13)/B13</f>
+        <f t="shared" si="0"/>
         <v>0.47974699998098541</v>
       </c>
       <c r="G13" t="s">
@@ -950,7 +966,7 @@
         <v>640692544</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56326552346829717</v>
       </c>
     </row>
@@ -968,7 +984,7 @@
         <v>515921504</v>
       </c>
       <c r="E14">
-        <f>(D14-B14)/B14</f>
+        <f t="shared" si="0"/>
         <v>0.11398471152423066</v>
       </c>
       <c r="G14" t="s">
@@ -984,7 +1000,7 @@
         <v>453241056</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21587576587869317</v>
       </c>
     </row>
@@ -1002,7 +1018,7 @@
         <v>753305984</v>
       </c>
       <c r="E15">
-        <f>(D15-B15)/B15</f>
+        <f t="shared" si="0"/>
         <v>9.954879885209944E-2</v>
       </c>
       <c r="G15" t="s">
@@ -1018,7 +1034,7 @@
         <v>611125760</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11703412585321651</v>
       </c>
     </row>
@@ -1036,7 +1052,7 @@
         <v>774158592</v>
       </c>
       <c r="E16">
-        <f>(D16-B16)/B16</f>
+        <f t="shared" si="0"/>
         <v>0.32249453453574278</v>
       </c>
       <c r="G16" t="s">
@@ -1052,7 +1068,7 @@
         <v>656746048</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29206718268818893</v>
       </c>
     </row>
@@ -1070,7 +1086,7 @@
         <v>703113920</v>
       </c>
       <c r="E17">
-        <f>(D17-B17)/B17</f>
+        <f t="shared" si="0"/>
         <v>0.51596780331830261</v>
       </c>
       <c r="G17" t="s">
@@ -1086,7 +1102,7 @@
         <v>550274624</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.50612743777816604</v>
       </c>
     </row>
@@ -1104,7 +1120,7 @@
         <v>1013432128</v>
       </c>
       <c r="E18">
-        <f>(D18-B18)/B18</f>
+        <f t="shared" si="0"/>
         <v>8.5858582741592387E-2</v>
       </c>
       <c r="G18" t="s">
@@ -1120,7 +1136,7 @@
         <v>804216128</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0511235734196963E-2</v>
       </c>
     </row>
@@ -1138,7 +1154,7 @@
         <v>1812118272</v>
       </c>
       <c r="E19">
-        <f>(D19-B19)/B19</f>
+        <f t="shared" si="0"/>
         <v>0.10598636177848109</v>
       </c>
       <c r="G19" t="s">
@@ -1154,7 +1170,7 @@
         <v>1294208128</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.7125969133407084E-2</v>
       </c>
     </row>
@@ -1172,7 +1188,7 @@
         <v>1215283200</v>
       </c>
       <c r="E20">
-        <f>(D20-B20)/B20</f>
+        <f t="shared" si="0"/>
         <v>0.22196801021498536</v>
       </c>
       <c r="G20" t="s">
@@ -1188,7 +1204,7 @@
         <v>937193280</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1923362124396642</v>
       </c>
     </row>
@@ -1206,7 +1222,7 @@
         <v>1036586688</v>
       </c>
       <c r="E21">
-        <f>(D21-B21)/B21</f>
+        <f t="shared" si="0"/>
         <v>0.36475686656099138</v>
       </c>
       <c r="G21" t="s">
@@ -1222,7 +1238,7 @@
         <v>887871872</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38580022557590432</v>
       </c>
     </row>
@@ -1240,7 +1256,7 @@
         <v>694106368</v>
       </c>
       <c r="E22">
-        <f>(D22-B22)/B22</f>
+        <f t="shared" si="0"/>
         <v>0.34537204326338761</v>
       </c>
       <c r="G22" t="s">
@@ -1256,7 +1272,7 @@
         <v>510601088</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12655524304488427</v>
       </c>
     </row>
@@ -1274,7 +1290,7 @@
         <v>643755392</v>
       </c>
       <c r="E23">
-        <f>(D23-B23)/B23</f>
+        <f t="shared" si="0"/>
         <v>-0.14542641944551446</v>
       </c>
       <c r="G23" t="s">
@@ -1290,7 +1306,7 @@
         <v>444253760</v>
       </c>
       <c r="K23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.27305672730928576</v>
       </c>
     </row>
@@ -1308,7 +1324,7 @@
         <v>772133824</v>
       </c>
       <c r="E24">
-        <f>(D24-B24)/B24</f>
+        <f t="shared" si="0"/>
         <v>-2.6154434258348967E-3</v>
       </c>
       <c r="G24" t="s">
@@ -1324,7 +1340,7 @@
         <v>617836032</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.9246669421907205E-2</v>
       </c>
     </row>
@@ -1342,7 +1358,7 @@
         <v>718136128</v>
       </c>
       <c r="E25">
-        <f>(D25-B25)/B25</f>
+        <f t="shared" si="0"/>
         <v>2.1365254722876204E-2</v>
       </c>
       <c r="G25" t="s">
@@ -1358,7 +1374,7 @@
         <v>571822208</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9157873287647735E-2</v>
       </c>
     </row>
@@ -1376,7 +1392,7 @@
         <v>1042516352</v>
       </c>
       <c r="E26">
-        <f>(D26-B26)/B26</f>
+        <f t="shared" si="0"/>
         <v>2.8698738866111812E-2</v>
       </c>
       <c r="G26" t="s">
@@ -1392,7 +1408,7 @@
         <v>807446080</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0162735955476883E-3</v>
       </c>
     </row>
@@ -1410,7 +1426,7 @@
         <v>1815427200</v>
       </c>
       <c r="E27">
-        <f>(D27-B27)/B27</f>
+        <f t="shared" si="0"/>
         <v>1.8260000194954163E-3</v>
       </c>
       <c r="G27" t="s">
@@ -1426,7 +1442,7 @@
         <v>1303932160</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5134994052517652E-3</v>
       </c>
     </row>
@@ -1444,7 +1460,7 @@
         <v>1006546112</v>
       </c>
       <c r="E28">
-        <f>(D28-B28)/B28</f>
+        <f t="shared" si="0"/>
         <v>-0.171760037495787</v>
       </c>
       <c r="G28" t="s">
@@ -1460,7 +1476,7 @@
         <v>746653504</v>
       </c>
       <c r="K28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.20330894391389576</v>
       </c>
     </row>
@@ -1478,7 +1494,7 @@
         <v>799218560</v>
       </c>
       <c r="E29">
-        <f>(D29-B29)/B29</f>
+        <f t="shared" si="0"/>
         <v>-0.22899013729182677</v>
       </c>
       <c r="G29" t="s">
@@ -1494,7 +1510,7 @@
         <v>628560960</v>
       </c>
       <c r="K29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.2920589334763834</v>
       </c>
     </row>
@@ -1512,7 +1528,7 @@
         <v>604173568</v>
       </c>
       <c r="E30">
-        <f>(D30-B30)/B30</f>
+        <f t="shared" si="0"/>
         <v>-0.12956630877646697</v>
       </c>
       <c r="G30" t="s">
@@ -1528,7 +1544,7 @@
         <v>506213120</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.5937302193919343E-3</v>
       </c>
     </row>
@@ -1546,7 +1562,7 @@
         <v>797918336</v>
       </c>
       <c r="E31">
-        <f>(D31-B31)/B31</f>
+        <f t="shared" si="0"/>
         <v>0.23947441204500233</v>
       </c>
       <c r="G31" t="s">
@@ -1562,7 +1578,7 @@
         <v>578580608</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30236513473740773</v>
       </c>
     </row>
@@ -1580,7 +1596,7 @@
         <v>779395200</v>
       </c>
       <c r="E32">
-        <f>(D32-B32)/B32</f>
+        <f t="shared" si="0"/>
         <v>9.4042972530108977E-3</v>
       </c>
       <c r="G32" t="s">
@@ -1596,7 +1612,7 @@
         <v>590985280</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.3459349421692516E-2</v>
       </c>
     </row>
@@ -1614,7 +1630,7 @@
         <v>972119552</v>
       </c>
       <c r="E33">
-        <f>(D33-B33)/B33</f>
+        <f t="shared" si="0"/>
         <v>0.35367030580586528</v>
       </c>
       <c r="G33" t="s">
@@ -1630,7 +1646,7 @@
         <v>734630336</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2847180919563026</v>
       </c>
     </row>
@@ -1648,7 +1664,7 @@
         <v>1032749568</v>
       </c>
       <c r="E34">
-        <f>(D34-B34)/B34</f>
+        <f t="shared" si="0"/>
         <v>-9.3684707978566074E-3</v>
       </c>
       <c r="G34" t="s">
@@ -1664,7 +1680,7 @@
         <v>815241920</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6549357202898312E-3</v>
       </c>
     </row>
@@ -1682,7 +1698,7 @@
         <v>1506660608</v>
       </c>
       <c r="E35">
-        <f>(D35-B35)/B35</f>
+        <f t="shared" si="0"/>
         <v>-0.17007930254653009</v>
       </c>
       <c r="G35" t="s">
@@ -1698,7 +1714,7 @@
         <v>1159441792</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.11081126183742565</v>
       </c>
     </row>
@@ -1716,7 +1732,7 @@
         <v>1107147008</v>
       </c>
       <c r="E36">
-        <f>(D36-B36)/B36</f>
+        <f t="shared" si="0"/>
         <v>9.9946634138903714E-2</v>
       </c>
       <c r="G36" t="s">
@@ -1732,7 +1748,7 @@
         <v>910153216</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21897668881762858</v>
       </c>
     </row>
@@ -1750,7 +1766,7 @@
         <v>733871936</v>
       </c>
       <c r="E37">
-        <f>(D37-B37)/B37</f>
+        <f t="shared" si="0"/>
         <v>-8.1763146241248447E-2</v>
       </c>
       <c r="G37" t="s">
@@ -1766,7 +1782,7 @@
         <v>572218880</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.9636620129891612E-2</v>
       </c>
     </row>
@@ -1784,7 +1800,7 @@
         <v>588921088</v>
       </c>
       <c r="E38">
-        <f>(D38-B38)/B38</f>
+        <f t="shared" si="0"/>
         <v>-2.5245195764671387E-2</v>
       </c>
       <c r="G38" t="s">
@@ -1800,7 +1816,7 @@
         <v>449502048</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.11203003193595615</v>
       </c>
     </row>
@@ -1818,7 +1834,7 @@
         <v>632900000</v>
       </c>
       <c r="E39">
-        <f>(D39-B39)/B39</f>
+        <f t="shared" si="0"/>
         <v>-0.20681105892019505</v>
       </c>
       <c r="G39" t="s">
@@ -1834,7 +1850,7 @@
         <v>456400000</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.21117300910299433</v>
       </c>
     </row>
@@ -1845,6 +1861,16 @@
       <c r="B40">
         <v>779395200</v>
       </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40">
+        <v>540500000</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>-0.30651356333731589</v>
+      </c>
       <c r="G40" t="s">
         <v>37</v>
       </c>
@@ -1859,6 +1885,9 @@
       <c r="B41">
         <v>972119552</v>
       </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
       <c r="G41" t="s">
         <v>38</v>
       </c>
@@ -1873,6 +1902,9 @@
       <c r="B42">
         <v>1032749568</v>
       </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
       <c r="G42" t="s">
         <v>39</v>
       </c>
@@ -1886,6 +1918,9 @@
       </c>
       <c r="B43">
         <v>1506660608</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
       </c>
       <c r="G43" t="s">
         <v>40</v>
